--- a/financial_files/excel/MSFT.xlsx
+++ b/financial_files/excel/MSFT.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data" ref="A1:O114" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data_scraped" ref="A1:O114" headerRowCount="1">
   <autoFilter ref="A1:O114"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Category"/>

--- a/financial_files/excel/MSFT.xlsx
+++ b/financial_files/excel/MSFT.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_statement_api" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rule1_results" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -156,6 +158,47 @@
     <tableColumn id="13" name="2019"/>
     <tableColumn id="14" name="2020"/>
     <tableColumn id="15" name="TTM"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="financial_statement_api" displayName="financial_statement_api" ref="A1:U23" headerRowCount="1">
+  <autoFilter ref="A1:U23"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="API Parameter"/>
+    <tableColumn id="2" name="2001"/>
+    <tableColumn id="3" name="2002"/>
+    <tableColumn id="4" name="2003"/>
+    <tableColumn id="5" name="2004"/>
+    <tableColumn id="6" name="2005"/>
+    <tableColumn id="7" name="2006"/>
+    <tableColumn id="8" name="2007"/>
+    <tableColumn id="9" name="2008"/>
+    <tableColumn id="10" name="2009"/>
+    <tableColumn id="11" name="2010"/>
+    <tableColumn id="12" name="2011"/>
+    <tableColumn id="13" name="2012"/>
+    <tableColumn id="14" name="2013"/>
+    <tableColumn id="15" name="2014"/>
+    <tableColumn id="16" name="2015"/>
+    <tableColumn id="17" name="2016"/>
+    <tableColumn id="18" name="2017"/>
+    <tableColumn id="19" name="2018"/>
+    <tableColumn id="20" name="2019"/>
+    <tableColumn id="21" name="2020"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="rule1_results" displayName="rule1_results" ref="A1:B55" headerRowCount="1">
+  <autoFilter ref="A1:B55"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Rule #1 Metric"/>
+    <tableColumn id="2" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6774,4 +6817,2255 @@
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>API Parameter</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>revenue</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>25296000000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>28365000000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32187000000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>36835000000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>39788000000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>44282000000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>51122000000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>60420000000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>58437000000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>62484000000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>69943000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>73723000000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>77849000000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>86833000000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>93580000000</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>91154000000</v>
+      </c>
+      <c r="R2" t="n">
+        <v>96571000000</v>
+      </c>
+      <c r="S2" t="n">
+        <v>110360000000</v>
+      </c>
+      <c r="T2" t="n">
+        <v>125843000000</v>
+      </c>
+      <c r="U2" t="n">
+        <v>143015000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>operating_income</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11720000000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11910000000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9545000000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9034000000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>14561000000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16472000000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>18438000000</v>
+      </c>
+      <c r="I3" t="n">
+        <v>22271000000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>20363000000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>24098000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>27161000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>27956000000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>26764000000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>27886000000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>28172000000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>27188000000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>29331000000</v>
+      </c>
+      <c r="S3" t="n">
+        <v>35058000000</v>
+      </c>
+      <c r="T3" t="n">
+        <v>42959000000</v>
+      </c>
+      <c r="U3" t="n">
+        <v>52959000000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pretax_income</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11525000000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11513000000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11054000000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12196000000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>16628000000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18262000000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>20101000000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>23814000000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>19821000000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>25013000000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>28071000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>22267000000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>27052000000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>27820000000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>18507000000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>25639000000</v>
+      </c>
+      <c r="R4" t="n">
+        <v>29901000000</v>
+      </c>
+      <c r="S4" t="n">
+        <v>36474000000</v>
+      </c>
+      <c r="T4" t="n">
+        <v>43688000000</v>
+      </c>
+      <c r="U4" t="n">
+        <v>53036000000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>income_tax</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-3804000000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-3684000000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-3523000000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-4028000000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-4374000000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-5663000000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-6036000000</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-6133000000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-5252000000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-6253000000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-4921000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-5289000000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-5189000000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-5746000000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-6314000000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-5100000000</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-4412000000</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-19903000000</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-4448000000</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-8755000000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>eps_diluted</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="U6" t="n">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>shares_diluted</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11148000000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11106000000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10882000000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10894000000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10906000000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>10531000000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9886000000</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9470000000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8996000000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8927000000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>8593000000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>8506000000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8470000000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>8399000000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>8254000000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>8013000000</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7832000000</v>
+      </c>
+      <c r="S7" t="n">
+        <v>7794000000</v>
+      </c>
+      <c r="T7" t="n">
+        <v>7753000000</v>
+      </c>
+      <c r="U7" t="n">
+        <v>7683000000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>total_assets</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>58830000000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>67646000000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>81732000000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>94368000000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>70815000000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>69597000000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>63171000000</v>
+      </c>
+      <c r="I8" t="n">
+        <v>72793000000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>77888000000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>86113000000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>108704000000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>121271000000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>142431000000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>172384000000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>174472000000</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>193468000000</v>
+      </c>
+      <c r="R8" t="n">
+        <v>250312000000</v>
+      </c>
+      <c r="S8" t="n">
+        <v>258848000000</v>
+      </c>
+      <c r="T8" t="n">
+        <v>286556000000</v>
+      </c>
+      <c r="U8" t="n">
+        <v>301311000000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>st_debt</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2000000000</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1231000000</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2999000000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2000000000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>7484000000</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>12904000000</v>
+      </c>
+      <c r="R9" t="n">
+        <v>10121000000</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3998000000</v>
+      </c>
+      <c r="T9" t="n">
+        <v>5516000000</v>
+      </c>
+      <c r="U9" t="n">
+        <v>3749000000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>lt_debt</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3746000000</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4939000000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>11921000000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>10713000000</v>
+      </c>
+      <c r="N10" t="n">
+        <v>12601000000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>20645000000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>27808000000</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>40557000000</v>
+      </c>
+      <c r="R10" t="n">
+        <v>76073000000</v>
+      </c>
+      <c r="S10" t="n">
+        <v>72242000000</v>
+      </c>
+      <c r="T10" t="n">
+        <v>66662000000</v>
+      </c>
+      <c r="U10" t="n">
+        <v>59578000000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>total_equity</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>47289000000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>52180000000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>64912000000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>74825000000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>48115000000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>40104000000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>31097000000</v>
+      </c>
+      <c r="I11" t="n">
+        <v>36286000000</v>
+      </c>
+      <c r="J11" t="n">
+        <v>39558000000</v>
+      </c>
+      <c r="K11" t="n">
+        <v>46175000000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>57083000000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>66363000000</v>
+      </c>
+      <c r="N11" t="n">
+        <v>78944000000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>89784000000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>80083000000</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>71997000000</v>
+      </c>
+      <c r="R11" t="n">
+        <v>87711000000</v>
+      </c>
+      <c r="S11" t="n">
+        <v>82718000000</v>
+      </c>
+      <c r="T11" t="n">
+        <v>102330000000</v>
+      </c>
+      <c r="U11" t="n">
+        <v>118304000000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>cf_cfo</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>13422000000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>14509000000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>15797000000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>14626000000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>16605000000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>14404000000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>17796000000</v>
+      </c>
+      <c r="I12" t="n">
+        <v>21612000000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>19037000000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>24073000000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>26994000000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>31626000000</v>
+      </c>
+      <c r="N12" t="n">
+        <v>28833000000</v>
+      </c>
+      <c r="O12" t="n">
+        <v>32502000000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>29668000000</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>33325000000</v>
+      </c>
+      <c r="R12" t="n">
+        <v>39507000000</v>
+      </c>
+      <c r="S12" t="n">
+        <v>43884000000</v>
+      </c>
+      <c r="T12" t="n">
+        <v>52185000000</v>
+      </c>
+      <c r="U12" t="n">
+        <v>60675000000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>cfi_ppe_net</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-1103000000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-770000000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-891000000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-1109000000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-812000000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-1578000000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-2264000000</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-3182000000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-3119000000</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-1977000000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-2355000000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-2305000000</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-4257000000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-5485000000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-5944000000</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-8343000000</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-8129000000</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-11632000000</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-13925000000</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-15441000000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>roic</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1839</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1692</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1399</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1372</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2361</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.3287</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.4818</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.6942</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.4371</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.4367</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.2596</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.2697</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.2269</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.1141</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.1795</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.1754</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.1022</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.2437</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.2566</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>revenue_growth</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1019</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1213</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1347</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1444</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0801</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1129</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.1544</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1818</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.0328</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0692</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.1193</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.0559</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.1154</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.07770000000000001</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-0.0259</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.0594</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.1427</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.1402</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.1364</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>eps_diluted_growth</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.2235</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0606</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.0142</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.08690000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.4933</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.07140000000000001</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.1833</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.3169</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.1336</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.2962</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.2809</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.2565</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.0193</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-0.4372</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.7297</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.2695</v>
+      </c>
+      <c r="S16" t="n">
+        <v>-0.3446</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.3755</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.1383</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>total_equity_growth</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1431</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1034</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.1527</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.3569</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.1664</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.2245</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1668</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0901</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.1672</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.2362</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.1625</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.1895</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.1373</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-0.108</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>-0.1009</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.2182</v>
+      </c>
+      <c r="S17" t="n">
+        <v>-0.0569</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.1561</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>cfo_growth</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1746</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0809</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0887</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.0741</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1353</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.1325</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.2354</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.2144</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.1191</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.2645</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.1213</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.1715</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.0883</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.1272</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.0871</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.1232</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.1855</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.1107</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.1891</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.1626</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>fcf_growth</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1152</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0849</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.0931</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1683</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.1878</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.2109</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.1865</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0.1362</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.3881</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.1618</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.0993</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-0.1218</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.0278</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.1862</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.1822</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>fcf</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>12319000000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>13739000000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>14906000000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>13517000000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>15793000000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>12826000000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15532000000</v>
+      </c>
+      <c r="I20" t="n">
+        <v>18430000000</v>
+      </c>
+      <c r="J20" t="n">
+        <v>15918000000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>22096000000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>24639000000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>29321000000</v>
+      </c>
+      <c r="N20" t="n">
+        <v>24576000000</v>
+      </c>
+      <c r="O20" t="n">
+        <v>27017000000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>23724000000</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>24982000000</v>
+      </c>
+      <c r="R20" t="n">
+        <v>31378000000</v>
+      </c>
+      <c r="S20" t="n">
+        <v>32252000000</v>
+      </c>
+      <c r="T20" t="n">
+        <v>38260000000</v>
+      </c>
+      <c r="U20" t="n">
+        <v>45234000000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>book_value_per_share</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4.2419</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4.6983</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5.965</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6.8684</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4.4117</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.8081</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.1455</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.8316</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.3972</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5.1725</v>
+      </c>
+      <c r="L21" t="n">
+        <v>6.6429</v>
+      </c>
+      <c r="M21" t="n">
+        <v>7.8019</v>
+      </c>
+      <c r="N21" t="n">
+        <v>9.320399999999999</v>
+      </c>
+      <c r="O21" t="n">
+        <v>10.6898</v>
+      </c>
+      <c r="P21" t="n">
+        <v>9.702299999999999</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>8.984999999999999</v>
+      </c>
+      <c r="R21" t="n">
+        <v>11.199</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10.613</v>
+      </c>
+      <c r="T21" t="n">
+        <v>13.1987</v>
+      </c>
+      <c r="U21" t="n">
+        <v>15.3981</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>market_cap</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>392959000000</v>
+      </c>
+      <c r="C22" t="n">
+        <v>293137300000</v>
+      </c>
+      <c r="D22" t="n">
+        <v>276168440000</v>
+      </c>
+      <c r="E22" t="n">
+        <v>312825600000</v>
+      </c>
+      <c r="F22" t="n">
+        <v>266036400000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>234444600000</v>
+      </c>
+      <c r="H22" t="n">
+        <v>276295690300</v>
+      </c>
+      <c r="I22" t="n">
+        <v>251744010000</v>
+      </c>
+      <c r="J22" t="n">
+        <v>211743160000</v>
+      </c>
+      <c r="K22" t="n">
+        <v>199450680000</v>
+      </c>
+      <c r="L22" t="n">
+        <v>217776000000</v>
+      </c>
+      <c r="M22" t="n">
+        <v>256374790000</v>
+      </c>
+      <c r="N22" t="n">
+        <v>287732400000</v>
+      </c>
+      <c r="O22" t="n">
+        <v>343566300000</v>
+      </c>
+      <c r="P22" t="n">
+        <v>354392050000</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>399535360000</v>
+      </c>
+      <c r="R22" t="n">
+        <v>531312440000</v>
+      </c>
+      <c r="S22" t="n">
+        <v>757028970000</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1023856280000</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1540774210000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>price_to_earnings</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>53.4929</v>
+      </c>
+      <c r="C23" t="n">
+        <v>37.4424</v>
+      </c>
+      <c r="D23" t="n">
+        <v>36.6708</v>
+      </c>
+      <c r="E23" t="n">
+        <v>38.2989</v>
+      </c>
+      <c r="F23" t="n">
+        <v>21.7101</v>
+      </c>
+      <c r="G23" t="n">
+        <v>18.6081</v>
+      </c>
+      <c r="H23" t="n">
+        <v>19.6442</v>
+      </c>
+      <c r="I23" t="n">
+        <v>14.2381</v>
+      </c>
+      <c r="J23" t="n">
+        <v>14.5338</v>
+      </c>
+      <c r="K23" t="n">
+        <v>10.6316</v>
+      </c>
+      <c r="L23" t="n">
+        <v>9.4071</v>
+      </c>
+      <c r="M23" t="n">
+        <v>15.1004</v>
+      </c>
+      <c r="N23" t="n">
+        <v>13.1607</v>
+      </c>
+      <c r="O23" t="n">
+        <v>15.5642</v>
+      </c>
+      <c r="P23" t="n">
+        <v>29.0652</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>19.4525</v>
+      </c>
+      <c r="R23" t="n">
+        <v>20.8447</v>
+      </c>
+      <c r="S23" t="n">
+        <v>45.6839</v>
+      </c>
+      <c r="T23" t="n">
+        <v>26.0921</v>
+      </c>
+      <c r="U23" t="n">
+        <v>34.7953</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Rule #1 Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ROIC - 10-year</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20.65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ROIC - 5-year</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>17.64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ROIC - 3-year</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>18.83%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ROIC - 1-year</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>24.34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 10-year</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>22.64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 5-year</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>19.15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 3-year</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>20.08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 1-year</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>25.66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>11.53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9.68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11.20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>16.66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>10.62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>31.23%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>21.02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>13.83%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>8.63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>8.85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>13.98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>13.65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>7.43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>13.78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>12.97%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>18.23%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>9.69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>15.38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>15.38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>16.27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Debt - Current Long-Term Debt</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>59578000000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Debt - Payoff Possible</t>
+        </is>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>current_eps</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6.198999610703968</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>analyst_growth_rate</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.1455</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>equity_growth_rate</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.1226634494236193</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>eps_growth_rate</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1226634494236193</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>future_eps</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>19.71593803275765</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>average_historical_pe</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>22.91661</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>default_pe</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>24.53268988472387</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>future_pe</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>22.91661</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>future_market_price</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>451.8224626808741</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>sticker_price</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>111.6836026570296</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>margin_of_safety</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>55.84180132851479</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>shortName</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Microsoft Corporation</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>currency</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>us_market</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>exchange</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>NMS</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>sector</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>industry</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Software—Infrastructure</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>website</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>http://www.microsoft.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>marketCap</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1638511673344</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>21309813</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>forwardPE</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>29.012049</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>previousClose</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>222.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>